--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjuns\OneDrive\NUS\CS4211 Formal Methods for Software Engineering\CS4211-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AF4C46-3EBB-4CBA-BB38-933F708714B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B266E9-95D8-426A-BD89-E2C27C1118AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -96,10 +96,10 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>Sum of new_net</t>
+  </si>
+  <si>
     <t>Sum of original_net</t>
-  </si>
-  <si>
-    <t>Sum of new_net</t>
   </si>
 </sst>
 </file>
@@ -223,1134 +223,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[summary.xlsx]Sheet2!PivotTable1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of original_net</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>final</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>of</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>of_ko</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>of_pk</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>of_to</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>of_to_sc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>of_to_sc_ko</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>-2227</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2227</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2227</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2227</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2227</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2227</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5009-4E0C-9D5D-E1CB107C787F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of new_net</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>final</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>of</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>of_ko</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>of_pk</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>of_to</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>of_to_sc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>of_to_sc_ko</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1887</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9782</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7361</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7107</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3795</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5009-4E0C-9D5D-E1CB107C787F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="205575215"/>
-        <c:axId val="209397711"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="205575215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="209397711"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="209397711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="205575215"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58320F48-0808-E7CF-FE06-AB7B350E0812}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="JS C" refreshedDate="45255.755292013891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="42" xr:uid="{97D4ECB9-C3CB-48D6-95D5-636AC7F05440}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="JS C" refreshedDate="45256.009706944445" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="42" xr:uid="{00047A8B-ED4D-4367-9AB4-53D54738C201}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="season" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="6">
+        <s v="1516"/>
+        <s v="1617"/>
+        <s v="1718"/>
+        <s v="1819"/>
+        <s v="1920"/>
+        <s v="2021"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="original_net" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-3020" maxValue="1199"/>
@@ -1381,253 +268,253 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
   <r>
-    <s v="1516"/>
+    <x v="0"/>
     <n v="-3020"/>
-    <n v="-707"/>
+    <n v="-5613"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="1617"/>
+    <x v="1"/>
     <n v="-373"/>
-    <n v="2043"/>
+    <n v="1100"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="1718"/>
+    <x v="2"/>
     <n v="-2135"/>
-    <n v="743"/>
+    <n v="-5147"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="1819"/>
+    <x v="3"/>
     <n v="920"/>
-    <n v="1600"/>
+    <n v="3703"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="1920"/>
+    <x v="4"/>
     <n v="1199"/>
-    <n v="1601"/>
+    <n v="-2119"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="2021"/>
+    <x v="5"/>
     <n v="1182"/>
-    <n v="-3393"/>
+    <n v="1669"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="1516"/>
+    <x v="0"/>
     <n v="-3020"/>
     <n v="-5095"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="1617"/>
+    <x v="1"/>
     <n v="-373"/>
     <n v="-1107"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="1718"/>
+    <x v="2"/>
     <n v="-2135"/>
     <n v="-5570"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="1819"/>
+    <x v="3"/>
     <n v="920"/>
     <n v="1639"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="1920"/>
+    <x v="4"/>
     <n v="1199"/>
     <n v="-341"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="2021"/>
+    <x v="5"/>
     <n v="1182"/>
     <n v="692"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="1516"/>
+    <x v="0"/>
     <n v="-3020"/>
     <n v="-5097"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="1617"/>
+    <x v="1"/>
     <n v="-373"/>
     <n v="521"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="1718"/>
+    <x v="2"/>
     <n v="-2135"/>
     <n v="-4967"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="1819"/>
+    <x v="3"/>
     <n v="920"/>
     <n v="1128"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="1920"/>
+    <x v="4"/>
     <n v="1199"/>
     <n v="2172"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="2021"/>
+    <x v="5"/>
     <n v="1182"/>
     <n v="511"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="1516"/>
+    <x v="0"/>
     <n v="-3020"/>
     <n v="-4627"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="1617"/>
+    <x v="1"/>
     <n v="-373"/>
     <n v="-97.999999999999972"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="1718"/>
+    <x v="2"/>
     <n v="-2135"/>
     <n v="-5910"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="1819"/>
+    <x v="3"/>
     <n v="920"/>
     <n v="2373"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="1920"/>
+    <x v="4"/>
     <n v="1199"/>
     <n v="83"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="2021"/>
+    <x v="5"/>
     <n v="1182"/>
     <n v="818"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="1516"/>
+    <x v="0"/>
     <n v="-3020"/>
     <n v="-4260"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="1617"/>
+    <x v="1"/>
     <n v="-373"/>
     <n v="-850"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="1718"/>
+    <x v="2"/>
     <n v="-2135"/>
     <n v="-5473"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="1819"/>
+    <x v="3"/>
     <n v="920"/>
     <n v="3081"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="1920"/>
+    <x v="4"/>
     <n v="1199"/>
     <n v="-225"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="2021"/>
+    <x v="5"/>
     <n v="1182"/>
     <n v="620"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="1516"/>
+    <x v="0"/>
     <n v="-3020"/>
     <n v="-3082"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="1617"/>
+    <x v="1"/>
     <n v="-373"/>
     <n v="-702"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="1718"/>
+    <x v="2"/>
     <n v="-2135"/>
     <n v="-5138"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="1819"/>
+    <x v="3"/>
     <n v="920"/>
     <n v="4287"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="1920"/>
+    <x v="4"/>
     <n v="1199"/>
     <n v="-671"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="2021"/>
+    <x v="5"/>
     <n v="1182"/>
     <n v="883"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="1516"/>
+    <x v="0"/>
     <n v="-3020"/>
     <n v="-4417"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="1617"/>
+    <x v="1"/>
     <n v="-373"/>
     <n v="1307"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="1718"/>
+    <x v="2"/>
     <n v="-2135"/>
     <n v="-5354"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="1819"/>
+    <x v="3"/>
     <n v="920"/>
     <n v="2756"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="1920"/>
+    <x v="4"/>
     <n v="1199"/>
     <n v="609"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="2021"/>
+    <x v="5"/>
     <n v="1182"/>
     <n v="1304"/>
     <x v="6"/>
@@ -1636,10 +523,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B4B294F-A208-41C8-B377-BEDD71525744}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67EE00FF-9BFB-42F0-89E6-17FBA4ACA809}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -1699,26 +596,6 @@
     <dataField name="Sum of original_net" fld="1" baseField="0" baseItem="0"/>
     <dataField name="Sum of new_net" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1732,13 +609,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1C8EDC4-4C30-40B4-ADC2-6FE09B141423}" name="Table1" displayName="Table1" ref="A1:D43" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:D43" xr:uid="{C1C8EDC4-4C30-40B4-ADC2-6FE09B141423}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264C8272-2CDE-4600-8817-AA859DF7C3A4}" name="Table1" displayName="Table1" ref="A1:D43" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:D43" xr:uid="{264C8272-2CDE-4600-8817-AA859DF7C3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{51ABA783-7742-4AE4-9320-D1568066C6EE}" name="season"/>
-    <tableColumn id="2" xr3:uid="{42425B07-2B58-4FED-A904-38A9FC951C21}" name="original_net"/>
-    <tableColumn id="3" xr3:uid="{7FA825AE-1647-4A31-8EDE-1847ACDDA3CF}" name="new_net"/>
-    <tableColumn id="4" xr3:uid="{6D00610A-B0F8-4D19-A215-D74428D724A0}" name="model"/>
+    <tableColumn id="1" xr3:uid="{E57F347C-391D-4023-A9C6-709247BF83AF}" name="season"/>
+    <tableColumn id="2" xr3:uid="{AB439AAC-6130-4D76-9932-C000EE579E80}" name="original_net"/>
+    <tableColumn id="3" xr3:uid="{936F9AD9-54F1-4770-B9AB-0A09F78F3DE6}" name="new_net"/>
+    <tableColumn id="4" xr3:uid="{5F466A53-9E3D-4D19-A6EF-D099EA7F8172}" name="model"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2028,11 +905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F3D4D-6E58-4638-96E2-13FBF0B59DAC}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0804CF39-A792-45C7-A5AD-941325642448}">
+  <dimension ref="A3:D11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2042,136 +919,116 @@
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>-2227</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1887</v>
-      </c>
-      <c r="D2">
-        <f>GETPIVOTDATA("Sum of new_net",$A$1,"model","final")-GETPIVOTDATA("Sum of original_net",$A$1,"model","final")</f>
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-2227</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-9782</v>
-      </c>
-      <c r="D3">
-        <f>GETPIVOTDATA("Sum of new_net",$A$1,"model","of")-GETPIVOTDATA("Sum of original_net",$A$1,"model","of")</f>
-        <v>-7555</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>-2227</v>
       </c>
       <c r="C4" s="4">
-        <v>-5732</v>
-      </c>
-      <c r="D4">
-        <f>GETPIVOTDATA("Sum of new_net",$A$1,"model","of_ko")-GETPIVOTDATA("Sum of original_net",$A$1,"model","of_ko")</f>
-        <v>-3505</v>
-      </c>
+        <v>-6407</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>-2227</v>
       </c>
       <c r="C5" s="4">
-        <v>-7361</v>
-      </c>
-      <c r="D5">
-        <f>GETPIVOTDATA("Sum of new_net",$A$1,"model","of_pk")-GETPIVOTDATA("Sum of original_net",$A$1,"model","of_pk")</f>
-        <v>-5134</v>
-      </c>
+        <v>-9782</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <v>-2227</v>
       </c>
       <c r="C6" s="4">
-        <v>-7107</v>
-      </c>
-      <c r="D6">
-        <f>GETPIVOTDATA("Sum of new_net",$A$1,"model","of_to")-GETPIVOTDATA("Sum of original_net",$A$1,"model","of_to")</f>
-        <v>-4880</v>
-      </c>
+        <v>-5732</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>-2227</v>
       </c>
       <c r="C7" s="4">
-        <v>-4423</v>
-      </c>
-      <c r="D7">
-        <f>GETPIVOTDATA("Sum of new_net",$A$1,"model","of_to_sc")-GETPIVOTDATA("Sum of original_net",$A$1,"model","of_to_sc")</f>
-        <v>-2196</v>
-      </c>
+        <v>-7361</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>-2227</v>
       </c>
       <c r="C8" s="4">
-        <v>-3795</v>
-      </c>
-      <c r="D8">
-        <f>GETPIVOTDATA("Sum of new_net",$A$1,"model","of_to_sc_ko")-GETPIVOTDATA("Sum of original_net",$A$1,"model","of_to_sc_ko")</f>
-        <v>-1568</v>
-      </c>
+        <v>-7107</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-2227</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-4423</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-2227</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-3795</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B11" s="4">
         <v>-15589</v>
       </c>
-      <c r="C9" s="4">
-        <v>-36313</v>
-      </c>
+      <c r="C11" s="4">
+        <v>-44607</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2179,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2211,7 +1068,7 @@
         <v>-3020</v>
       </c>
       <c r="C2">
-        <v>-707</v>
+        <v>-5613</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2225,7 +1082,7 @@
         <v>-373</v>
       </c>
       <c r="C3">
-        <v>2043</v>
+        <v>1100</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2239,7 +1096,7 @@
         <v>-2135</v>
       </c>
       <c r="C4">
-        <v>743</v>
+        <v>-5147</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2253,7 +1110,7 @@
         <v>920</v>
       </c>
       <c r="C5">
-        <v>1600</v>
+        <v>3703</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -2267,7 +1124,7 @@
         <v>1199</v>
       </c>
       <c r="C6">
-        <v>1601</v>
+        <v>-2119</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2281,7 +1138,7 @@
         <v>1182</v>
       </c>
       <c r="C7">
-        <v>-3393</v>
+        <v>1669</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
